--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,200 +446,185 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>_quote</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>箱型力量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>量能</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>盤後量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>淨值倍率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_quote</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>價能</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MA5_%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LevelArea</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>淨值倍率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>盤後量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>成交量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>量比</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rt_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LevelArea</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>over_%</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_%</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD-SL</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>價能O</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>rt_量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Trend_change</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>成交金額</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,175 +481,180 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>短增量_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,180 +481,175 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>短交易量o</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量o</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Trend_change</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,11 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Result/check1/2025-02-28.xlsx
+++ b/Result/check1/2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
